--- a/AAII_Financials/Quarterly/WBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>WBD</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9827000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3159000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3187000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3150000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3062000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2792000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2886000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2561000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2541000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6123000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1232000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1065000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1527000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1054000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>969000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1089000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1002000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3704000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1927000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2122000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1623000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2008000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1823000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1797000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1559000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1737000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1535000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>18000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>150000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>70000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2266000</v>
+      </c>
+      <c r="E15" s="3">
         <v>525000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>539000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>341000</v>
       </c>
       <c r="G15" s="3">
         <v>341000</v>
       </c>
       <c r="H15" s="3">
+        <v>341000</v>
+      </c>
+      <c r="I15" s="3">
         <v>361000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>358000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>341000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13466000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2806000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2679000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2827000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2284000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2399000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2406000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2046000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3639000</v>
+      </c>
+      <c r="E18" s="3">
         <v>353000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>508000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>323000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>778000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>393000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>480000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>515000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>646000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E20" s="3">
         <v>476000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-171000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>69000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>99000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>67000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>109000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-25000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3649000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2323000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1642000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1952000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1991000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1564000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1785000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1594000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1613000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E22" s="3">
         <v>153000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>154000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>159000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>157000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>163000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>173000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>171000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4244000</v>
+      </c>
+      <c r="E23" s="3">
         <v>676000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>183000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>233000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>720000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>297000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>416000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>319000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-836000</v>
+      </c>
+      <c r="E24" s="3">
         <v>201000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>92000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>106000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>98000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3408000</v>
+      </c>
+      <c r="E26" s="3">
         <v>475000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>91000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>197000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>718000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>191000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>318000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>330000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3418000</v>
+      </c>
+      <c r="E27" s="3">
         <v>407000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>48000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>120000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>515000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>106000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>205000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>223000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-476000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>171000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-69000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-99000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-67000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-109000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>25000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3418000</v>
+      </c>
+      <c r="E33" s="3">
         <v>407000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>48000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>120000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>515000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>106000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>205000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>223000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3418000</v>
+      </c>
+      <c r="E35" s="3">
         <v>407000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>48000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>120000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>515000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>106000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>205000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>223000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2575000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4162000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3905000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3116000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2834000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2008000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2091000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1893000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1683000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7049000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2426000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2446000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2462000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2657000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2476000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2537000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2444000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2473000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,153 +1745,171 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5825000</v>
+      </c>
+      <c r="E45" s="3">
         <v>585000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>913000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1078000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1237000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1381000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1502000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1141000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>561000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15449000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7173000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7264000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6656000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6728000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5865000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6130000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5478000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4717000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>543000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>545000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>559000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>522000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>507000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>536000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5597000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1328000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1336000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1310000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1239000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1189000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1206000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1125000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>113117000</v>
+      </c>
+      <c r="E49" s="3">
         <v>22611000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23061000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23429000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>23694000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23765000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>24149000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>24194000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24618000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8077000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2687000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2223000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2378000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2352000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2284000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2095000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2105000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2136000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>142240000</v>
+      </c>
+      <c r="E54" s="3">
         <v>33799000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34427000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34318000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34572000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33625000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34087000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33438000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33089000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E57" s="3">
         <v>521000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>412000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2361000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2174000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2128000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>397000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>403000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>367000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1097000</v>
+      </c>
+      <c r="E58" s="3">
         <v>794000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>397000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>349000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>585000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>351000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>392000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>336000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11942000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2247000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2650000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>625000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>806000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>663000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2293000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2017000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14436000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3562000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3459000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3335000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3565000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3142000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3082000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2756000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>51388000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13605000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14617000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14436000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14462000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14675000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15253000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14981000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14944000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23469000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3070000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2955000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3149000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3237000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3233000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3369000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3661000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3769000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90857000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21830000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22828000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22707000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23034000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22810000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23623000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23351000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23222000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6614000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10033000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9580000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9522000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9360000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8682000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8543000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8278000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7980000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51383000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11969000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11599000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11611000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11538000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10815000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10464000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10087000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9867000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3418000</v>
+      </c>
+      <c r="E81" s="3">
         <v>407000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>48000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>120000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>515000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>106000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>205000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>223000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7382000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1494000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1305000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1560000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1114000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1104000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1196000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1104000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>985000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="E89" s="3">
         <v>323000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>884000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>811000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>834000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>269000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>553000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>860000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-85000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-106000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-77000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-90000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-112000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-73000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-112000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2351000</v>
+      </c>
+      <c r="E94" s="3">
         <v>529000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-226000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>40000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>156000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-153000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-396000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-84000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3570000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-587000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-42000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-273000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-69000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-469000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-277000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-274000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-739000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-37000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-20000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>21000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-70000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>43000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>28000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E102" s="3">
         <v>260000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>779000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>292000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>826000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-114000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>166000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>218000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>204000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>WBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9823000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9827000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3159000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3187000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3150000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3062000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2792000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2886000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2561000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2541000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4718000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6123000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1232000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1065000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1527000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1054000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>969000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1089000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1002000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5105000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3704000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1927000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2122000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1623000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2008000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1823000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1797000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1559000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1737000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,72 +906,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2430000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1535000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>18000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>150000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>70000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2233000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2266000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>525000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>539000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>341000</v>
       </c>
       <c r="H15" s="3">
         <v>341000</v>
       </c>
       <c r="I15" s="3">
+        <v>341000</v>
+      </c>
+      <c r="J15" s="3">
         <v>361000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>358000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>341000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12013000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13466000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2806000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2679000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2827000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2284000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2399000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2406000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2046000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2190000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3639000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>353000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>508000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>323000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>778000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>393000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>480000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>515000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>646000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,168 +1075,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-94000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>476000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-171000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>69000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>99000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>67000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>109000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3878000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3649000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2323000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1642000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1952000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1991000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1564000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1785000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1594000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1613000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>555000</v>
+      </c>
+      <c r="E22" s="3">
         <v>511000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>153000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>154000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>159000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>157000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>163000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>173000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>171000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2851000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4244000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>676000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>183000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>233000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>720000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>297000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>416000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>319000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-566000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-836000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>201000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>92000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>36000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>106000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>98000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2285000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3408000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>475000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>91000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>197000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>718000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>191000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>318000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>330000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2308000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3418000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>407000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>120000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>515000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>106000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>205000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>223000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E32" s="3">
         <v>94000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-476000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>171000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-69000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-99000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-67000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-109000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2308000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3418000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>407000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>48000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>120000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>515000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>106000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>205000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>223000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2308000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3418000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>407000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>48000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>120000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>515000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>106000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>205000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>223000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2422000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2575000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4162000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3905000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3116000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2834000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2008000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2091000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1893000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1683000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,40 +1773,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6669000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7049000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2426000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2446000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2462000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2657000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2476000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2537000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2444000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2473000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,72 +1843,81 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3581000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5825000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>585000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>913000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1078000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1237000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1381000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1502000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1141000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>561000</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12672000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15449000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7173000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7264000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6656000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6728000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5865000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6130000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5478000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4717000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1823,93 +1927,102 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
         <v>543000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>545000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>559000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>522000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>507000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>536000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5597000</v>
+        <v>8365000</v>
       </c>
       <c r="E48" s="3">
+        <v>8515000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1328000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1336000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1310000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1239000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1189000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1206000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1125000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>109482000</v>
+      </c>
+      <c r="E49" s="3">
         <v>113117000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>22611000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23061000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>23429000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23694000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23765000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>24149000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24194000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24618000</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8077000</v>
+        <v>5530000</v>
       </c>
       <c r="E52" s="3">
+        <v>5159000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2687000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2223000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2378000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2352000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2284000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2095000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2105000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2136000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>136049000</v>
+      </c>
+      <c r="E54" s="3">
         <v>142240000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33799000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34427000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34318000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34572000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33625000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34087000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33438000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33089000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2225,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1534000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1397000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>521000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>412000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2361000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2174000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2128000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>397000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>403000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>367000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1097000</v>
+        <v>1338000</v>
       </c>
       <c r="E58" s="3">
+        <v>1175000</v>
+      </c>
+      <c r="F58" s="3">
         <v>794000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>397000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>349000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>585000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>351000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>392000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>336000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11942000</v>
+        <v>11804000</v>
       </c>
       <c r="E59" s="3">
+        <v>11864000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2247000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2650000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>625000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>806000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>663000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2293000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2017000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14676000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14436000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3562000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3459000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3335000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3565000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3142000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3082000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2756000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>51388000</v>
+        <v>48799000</v>
       </c>
       <c r="E61" s="3">
+        <v>51594000</v>
+      </c>
+      <c r="F61" s="3">
         <v>13605000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14617000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14436000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14462000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14675000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15253000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14981000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14944000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23469000</v>
+        <v>22494000</v>
       </c>
       <c r="E62" s="3">
+        <v>23263000</v>
+      </c>
+      <c r="F62" s="3">
         <v>3070000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2955000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3149000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3237000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3233000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3369000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3661000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3769000</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>87532000</v>
+      </c>
+      <c r="E66" s="3">
         <v>90857000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21830000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22828000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22707000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23034000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22810000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23623000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23351000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23222000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4306000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6614000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10033000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9580000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9522000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9360000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8682000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8543000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8278000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7980000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48517000</v>
+      </c>
+      <c r="E76" s="3">
         <v>51383000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11969000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11599000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11611000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11538000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10815000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10464000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10087000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9867000</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2308000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3418000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>407000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>48000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>120000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>515000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>106000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>205000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>223000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6174000</v>
+      </c>
+      <c r="E83" s="3">
         <v>7382000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1494000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1305000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1560000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1114000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1104000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1196000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1104000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>985000</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1011000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>323000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>884000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>811000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>834000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>269000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>553000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>860000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-316000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-222000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-85000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-106000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-77000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-90000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-112000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-73000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-112000</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2351000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>529000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-226000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>40000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>156000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-153000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-396000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-84000</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3583,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2313000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3570000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-587000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-42000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-273000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-69000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-469000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-277000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-274000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-739000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-61000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-37000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-20000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>21000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-70000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>43000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>28000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1383000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-269000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>260000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>779000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>292000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>826000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-114000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>166000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>218000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>204000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>WBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11008000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9823000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9827000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3159000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3187000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3150000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3062000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2792000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2886000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2561000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2541000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6954000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4718000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6123000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1232000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1065000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1527000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1054000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>969000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1089000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1002000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4054000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5105000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3704000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1927000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2122000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1623000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2008000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1823000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1797000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1559000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1737000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,78 +925,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1198000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2430000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1535000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>150000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>70000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2169000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2233000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2266000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>525000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>539000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>341000</v>
       </c>
       <c r="I15" s="3">
         <v>341000</v>
       </c>
       <c r="J15" s="3">
+        <v>341000</v>
+      </c>
+      <c r="K15" s="3">
         <v>361000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>358000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>341000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1016,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12902000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12013000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13466000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2806000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2679000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2827000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2284000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2399000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2406000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2046000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1894000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2190000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3639000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>353000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>508000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>323000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>778000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>393000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>480000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>515000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>646000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,183 +1108,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-106000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-94000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>476000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-171000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>69000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>99000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>67000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>109000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-25000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4270000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3878000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3649000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2323000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1642000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1952000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1991000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1564000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1785000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1594000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1613000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E22" s="3">
         <v>555000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>511000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>153000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>154000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>159000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>157000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>163000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>173000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>171000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2541000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2851000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4244000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>676000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>183000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>233000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>720000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>297000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>416000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>319000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-462000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-566000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-836000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>201000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>92000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>106000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>98000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2079000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2285000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3408000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>475000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>91000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>197000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>718000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>191000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>318000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>330000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2101000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2308000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3418000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>407000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>48000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>120000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>515000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>106000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>205000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>223000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1562,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E32" s="3">
         <v>106000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>94000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-476000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>171000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-69000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-99000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-67000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-109000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>25000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2101000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2308000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3418000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>407000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>48000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>120000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>515000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>106000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>205000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>223000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2101000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2308000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3418000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>407000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>48000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>120000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>515000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>106000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>205000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>223000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1791,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3731000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2422000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2575000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4162000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3905000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3116000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2834000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2008000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2091000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1893000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1683000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,43 +1865,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6380000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6669000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7049000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2426000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2446000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2462000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2657000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2476000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2537000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2444000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2473000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,78 +1941,87 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3888000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3581000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5825000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>585000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>913000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1078000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1237000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1381000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1502000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1141000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>561000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13999000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12672000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15449000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7173000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7264000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6656000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6728000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5865000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6130000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5478000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4717000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1930,99 +2034,108 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
         <v>543000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>545000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>559000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>522000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>507000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>536000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8490000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8365000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8515000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1328000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1336000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1310000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1239000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1189000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1206000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1125000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>106072000</v>
+      </c>
+      <c r="E49" s="3">
         <v>109482000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>113117000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>22611000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>23061000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23429000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23694000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23765000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24149000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24194000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24618000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2207,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5440000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5530000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5159000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2687000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2223000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2378000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2352000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2284000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2095000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2105000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2136000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2283,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>134001000</v>
+      </c>
+      <c r="E54" s="3">
         <v>136049000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>142240000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33799000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34427000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34318000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34572000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33625000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34087000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33438000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33089000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,218 +2355,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1454000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1534000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1397000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>521000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>412000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2361000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2174000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2128000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>397000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>403000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>367000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>447000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1338000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1175000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>794000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>397000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>349000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>585000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>351000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>392000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>336000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13116000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11804000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11864000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2247000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2650000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>625000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>806000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>663000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2293000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2017000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15017000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14676000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14436000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3562000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3459000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3335000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3565000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3142000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3082000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2756000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48820000</v>
+      </c>
+      <c r="E61" s="3">
         <v>48799000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>51594000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13605000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14617000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14436000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14462000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14675000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15253000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14981000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14944000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21497000</v>
+      </c>
+      <c r="E62" s="3">
         <v>22494000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23263000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3070000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2955000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3149000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3237000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3233000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3369000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3661000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3769000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2695,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>86906000</v>
+      </c>
+      <c r="E66" s="3">
         <v>87532000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>90857000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21830000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22828000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22707000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23034000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22810000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23623000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23351000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23222000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2901,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2205000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4306000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6614000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10033000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9580000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9522000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9360000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8682000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8543000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8278000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7980000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3053,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47095000</v>
+      </c>
+      <c r="E76" s="3">
         <v>48517000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>51383000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11969000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11599000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11611000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11538000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10815000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10464000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10087000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9867000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2101000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2308000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3418000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>407000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>48000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>120000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>515000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>106000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>205000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>223000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3228,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6253000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6174000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7382000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1494000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1305000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1560000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1114000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1104000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1196000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1104000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>985000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3454,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2846000</v>
+      </c>
+      <c r="E89" s="3">
         <v>124000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1011000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>323000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>884000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>811000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>834000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>269000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>553000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>860000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3510,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-364000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-316000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-222000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-85000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-106000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-77000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-90000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-112000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-73000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-112000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3622,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E94" s="3">
         <v>862000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2351000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>529000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-226000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>40000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>156000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-153000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-396000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-84000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3828,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1272000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2313000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3570000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-587000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-42000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-273000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-69000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-469000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-277000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-274000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-739000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-56000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-61000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-37000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-20000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>21000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-70000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>43000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>28000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1417000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1383000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-269000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>260000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>779000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>292000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>826000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-114000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>166000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>218000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>204000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>WBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10700000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11008000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9823000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9827000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3159000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3187000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3150000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3062000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2792000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2886000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2561000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2541000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6589000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6954000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4718000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6123000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1232000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1065000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1527000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1054000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>969000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1089000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1002000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4111000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4054000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5105000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3704000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1927000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2122000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1623000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2008000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1823000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1797000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1559000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1737000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,84 +944,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1198000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2430000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1535000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>150000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>70000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2058000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2169000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2233000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2266000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>525000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>539000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>341000</v>
       </c>
       <c r="J15" s="3">
         <v>341000</v>
       </c>
       <c r="K15" s="3">
+        <v>341000</v>
+      </c>
+      <c r="L15" s="3">
         <v>361000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>358000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>341000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1042,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11257000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12902000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12013000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13466000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2806000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2679000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2827000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2284000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2399000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2406000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2046000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-557000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1894000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2190000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3639000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>353000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>508000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>323000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>778000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>393000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>480000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>515000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>646000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,198 +1141,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-89000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-106000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-94000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>476000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-171000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>69000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>99000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>67000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>109000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-25000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6018000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4270000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3878000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3649000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2323000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1642000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1952000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1991000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1564000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1785000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1594000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1613000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>571000</v>
+      </c>
+      <c r="E22" s="3">
         <v>558000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>555000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>511000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>153000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>154000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>159000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>157000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>163000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>173000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>171000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1238000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2541000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2851000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4244000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>676000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>183000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>233000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>720000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>297000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>416000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>319000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-462000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-566000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-836000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>201000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>92000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>106000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>98000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1385,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1060000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2079000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2285000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3408000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>475000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>91000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>197000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>718000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>191000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>318000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>330000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1069000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2101000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2308000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3418000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>407000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>48000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>120000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>515000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>106000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>205000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>223000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,84 +1631,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E32" s="3">
         <v>89000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>106000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>94000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-476000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>171000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-69000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-99000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-67000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-109000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>25000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1069000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2101000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2308000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3418000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>407000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>48000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>120000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>515000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>106000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>205000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>223000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1754,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1069000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2101000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2308000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3418000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>407000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>48000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>120000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>515000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>106000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>205000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>223000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,46 +1877,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2594000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3731000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2422000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2575000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4162000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3905000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3116000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2834000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2008000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2091000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1893000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1683000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,46 +1957,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6833000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6380000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6669000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7049000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2426000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2446000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2462000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2657000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2476000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2537000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2444000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2473000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,84 +2039,93 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3888000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3581000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5825000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>585000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>913000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1078000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1237000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1381000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1502000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1141000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>561000</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13727000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13999000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12672000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15449000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7173000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7264000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6656000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6728000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5865000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6130000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5478000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4717000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2037,105 +2141,114 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
         <v>543000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>545000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>559000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>522000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>507000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>536000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5325000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8490000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8365000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8515000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1328000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1336000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1310000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1239000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1189000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1206000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1125000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>103370000</v>
+      </c>
+      <c r="E49" s="3">
         <v>106072000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>109482000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>113117000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>22611000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23061000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23429000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23694000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23765000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24149000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24194000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24618000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,46 +2326,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8162000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5440000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5530000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5159000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2687000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2223000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2378000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2352000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2284000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2095000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2105000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2136000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,46 +2408,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>130584000</v>
+      </c>
+      <c r="E54" s="3">
         <v>134001000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>136049000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>142240000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33799000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34427000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34318000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34572000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33625000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34087000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33438000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33089000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,236 +2485,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1454000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1534000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1397000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>521000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>412000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2361000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2174000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2128000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>397000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>403000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>367000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3496000</v>
+      </c>
+      <c r="E58" s="3">
         <v>447000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1338000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1175000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>794000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>397000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>349000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>585000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>351000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>392000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>336000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11761000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13116000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11804000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11864000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2247000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2650000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>625000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>806000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>663000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2293000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2017000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16380000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15017000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14676000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14436000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3562000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3459000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3335000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3565000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3142000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3082000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2756000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45434000</v>
+      </c>
+      <c r="E61" s="3">
         <v>48820000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>48799000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>51594000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13605000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14617000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14436000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14462000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14675000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15253000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14981000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14944000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20928000</v>
+      </c>
+      <c r="E62" s="3">
         <v>21497000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22494000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23263000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3070000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2955000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3149000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3237000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3233000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3369000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3661000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3769000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,46 +2852,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>84088000</v>
+      </c>
+      <c r="E66" s="3">
         <v>86906000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>87532000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>90857000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21830000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22828000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22707000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23034000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22810000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23623000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23351000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23222000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,46 +3074,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1133000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2205000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4306000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6614000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10033000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9580000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9522000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9360000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8682000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8543000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8278000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7980000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,46 +3238,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46496000</v>
+      </c>
+      <c r="E76" s="3">
         <v>47095000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48517000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>51383000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11969000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11599000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11611000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11538000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10815000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10464000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10087000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9867000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3320,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1069000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2101000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2308000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3418000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>407000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>48000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>120000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>515000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>106000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>205000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>223000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,46 +3426,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6685000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6253000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6174000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7382000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1494000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1305000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1560000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1114000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1104000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1196000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1104000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>985000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3670,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-631000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2846000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>124000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1011000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>323000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>884000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>811000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>834000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>269000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>553000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>860000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3730,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-299000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-364000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-316000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-222000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-85000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-106000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-77000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-90000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-112000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-73000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-112000</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +3851,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-257000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-218000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>862000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2351000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>529000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-226000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>40000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>156000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-153000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-396000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-84000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,118 +4073,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-432000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1272000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2313000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3570000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-587000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-42000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-273000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-69000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-469000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-277000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-274000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-739000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E101" s="3">
         <v>61000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-56000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-61000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-37000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>21000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-70000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>43000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>28000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1291000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1417000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1383000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-269000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>260000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>779000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>292000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>826000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-114000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>166000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>218000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>204000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>WBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,203 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10358000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10700000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11008000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9823000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9827000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3159000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3187000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3150000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3062000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2792000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2886000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2561000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2541000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6608000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6589000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6954000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4718000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6123000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1232000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1065000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1527000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1054000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>969000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1089000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1002000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3750000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4111000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4054000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5105000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3704000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1927000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2122000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1623000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2008000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1823000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1797000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1559000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1737000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,8 +877,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,90 +963,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E14" s="3">
         <v>222000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1198000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2430000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1535000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>150000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>70000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1914000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2058000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2169000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2233000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2266000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>525000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>539000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>341000</v>
       </c>
       <c r="K15" s="3">
         <v>341000</v>
       </c>
       <c r="L15" s="3">
+        <v>341000</v>
+      </c>
+      <c r="M15" s="3">
         <v>361000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>358000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>341000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,90 +1068,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11269000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11257000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12902000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12013000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13466000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2806000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2679000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2827000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2284000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2399000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2406000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2046000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-911000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-557000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1894000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2190000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3639000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>353000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>508000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>323000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>778000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>393000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>480000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>515000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>646000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,213 +1174,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-110000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-89000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-106000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-94000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>476000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-171000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>69000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>99000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>67000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>109000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-25000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5618000</v>
+      </c>
+      <c r="E21" s="3">
         <v>6018000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4270000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3878000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3649000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2323000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1642000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1952000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1991000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1564000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1785000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1594000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1613000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>574000</v>
+      </c>
+      <c r="E22" s="3">
         <v>571000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>558000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>555000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>511000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>153000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>154000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>159000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>157000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>163000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>173000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>171000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1480000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1238000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2541000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2851000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4244000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>676000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>183000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>233000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>720000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>297000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>416000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>319000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-178000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-462000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-566000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-836000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>201000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>92000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>106000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>98000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,90 +1436,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1220000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1060000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2079000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2285000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3408000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>475000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>91000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>197000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>718000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>191000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>318000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>330000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1240000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1069000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2101000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2308000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3418000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>407000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>48000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>120000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>515000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>106000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>205000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>223000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,90 +1700,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>110000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>89000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>106000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>94000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-476000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>171000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-69000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-99000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-67000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-109000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>25000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1240000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1069000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2101000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2308000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3418000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>407000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>48000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>120000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>515000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>106000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>205000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>223000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,95 +1832,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1240000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1069000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2101000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2308000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3418000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>407000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>48000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>120000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>515000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>106000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>205000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>223000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,49 +1963,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3027000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2594000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3731000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2422000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2575000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4162000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3905000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3116000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2834000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2008000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2091000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1893000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1683000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,49 +2049,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6770000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6833000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6380000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6669000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7049000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2426000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2446000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2462000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2657000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2476000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2537000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2444000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2473000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,90 +2137,99 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3976000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4300000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3888000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3581000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5825000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>585000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>913000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1078000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1237000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1381000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1502000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1141000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>561000</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13773000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13727000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13999000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12672000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15449000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7173000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7264000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6656000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6728000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5865000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6130000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5478000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4717000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2144,111 +2248,120 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
         <v>543000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>545000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>559000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>522000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>507000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>536000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5473000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5325000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8490000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8365000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8515000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1328000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1336000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1310000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1239000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1189000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1206000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1125000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>100888000</v>
+      </c>
+      <c r="E49" s="3">
         <v>103370000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>106072000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>109482000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>113117000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>22611000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23061000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23429000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23694000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23765000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24149000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24194000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>24618000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,49 +2445,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8484000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8162000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5440000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5530000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5159000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2687000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2223000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2378000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2352000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2284000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2095000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2105000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2136000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,49 +2533,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>128618000</v>
+      </c>
+      <c r="E54" s="3">
         <v>130584000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>134001000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>136049000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>142240000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33799000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34427000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34318000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34572000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33625000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34087000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33438000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33089000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,254 +2615,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1689000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1123000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1454000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1534000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1397000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>521000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>412000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2361000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2174000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2128000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>397000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>403000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>367000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3001000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3496000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>447000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1338000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1175000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>794000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>397000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>349000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>585000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>351000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>392000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>336000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12216000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11761000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13116000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11804000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11864000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2247000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2650000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>625000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>806000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>663000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2293000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2017000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16906000</v>
+      </c>
+      <c r="E60" s="3">
         <v>16380000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15017000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14676000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14436000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3562000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3459000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3335000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3565000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3142000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3082000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2756000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44276000</v>
+      </c>
+      <c r="E61" s="3">
         <v>45434000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>48820000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>48799000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>51594000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13605000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14617000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14436000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14462000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14675000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15253000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14981000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14944000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20651000</v>
+      </c>
+      <c r="E62" s="3">
         <v>20928000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21497000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22494000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23263000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3070000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2955000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3149000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3237000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3233000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3369000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3661000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3769000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,49 +3009,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>83166000</v>
+      </c>
+      <c r="E66" s="3">
         <v>84088000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>86906000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>87532000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>90857000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21830000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22828000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22707000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23034000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22810000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23623000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23351000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23222000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,49 +3247,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1133000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2205000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4306000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6614000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10033000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9580000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9522000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9360000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8682000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8543000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8278000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7980000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,49 +3423,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45452000</v>
+      </c>
+      <c r="E76" s="3">
         <v>46496000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47095000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48517000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51383000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11969000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11599000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11611000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11538000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10815000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10464000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10087000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9867000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,95 +3511,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1240000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1069000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2101000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2308000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3418000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>407000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>48000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>120000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>515000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>106000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>205000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>223000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,49 +3624,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6524000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6685000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6253000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6174000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7382000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1494000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1305000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1560000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1114000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1104000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1196000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1104000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>985000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,49 +3886,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2014000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-631000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2846000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>124000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1011000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>323000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>884000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>811000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>834000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>269000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>553000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>860000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,49 +3950,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-292000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-299000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-364000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-316000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-222000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-85000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-106000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-90000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-112000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-73000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-112000</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,49 +4080,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-257000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-218000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>862000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2351000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>529000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-226000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>40000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>156000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-153000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-396000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-84000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,127 +4318,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1251000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-432000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1272000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2313000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3570000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-587000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-42000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-273000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-69000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-469000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-277000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-274000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-739000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E101" s="3">
         <v>29000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>61000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-56000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-61000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-37000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>21000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-70000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>43000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>28000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1291000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1417000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1383000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-269000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>260000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>779000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>292000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>826000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-114000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>166000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>218000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>204000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>WBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,215 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9979000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10358000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10700000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11008000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9823000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9827000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3159000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3187000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3150000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3062000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2792000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2886000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2561000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2541000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5118000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6608000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6589000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6954000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4718000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6123000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1232000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1065000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1527000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1054000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>969000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1089000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1002000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4861000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3750000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4111000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4054000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5105000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3704000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1927000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2122000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1623000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2008000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1823000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1797000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1559000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1737000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +890,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,96 +982,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E14" s="3">
         <v>185000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>222000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1198000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2430000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1535000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>150000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>70000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1989000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1914000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2058000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2169000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2233000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2266000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>525000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>539000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>341000</v>
       </c>
       <c r="L15" s="3">
         <v>341000</v>
       </c>
       <c r="M15" s="3">
+        <v>341000</v>
+      </c>
+      <c r="N15" s="3">
         <v>361000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>358000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>341000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1094,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9860000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11269000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11257000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12902000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12013000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13466000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2806000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2679000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2827000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2284000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2399000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2406000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2046000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-911000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-557000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1894000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2190000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3639000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>353000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>508000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>323000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>778000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>393000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>480000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>515000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>646000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,96 +1207,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-110000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-89000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-106000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-94000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>476000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-171000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>69000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>99000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>67000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>109000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-25000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5026000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5618000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6018000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4270000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3878000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3649000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2323000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1642000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1952000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1991000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1564000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1785000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1594000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1613000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1272,131 +1311,140 @@
         <v>574000</v>
       </c>
       <c r="E22" s="3">
+        <v>574000</v>
+      </c>
+      <c r="F22" s="3">
         <v>571000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>558000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>555000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>511000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>153000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>154000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>159000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>157000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>163000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>173000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>171000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-532000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1480000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1238000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2541000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2851000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4244000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>676000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>183000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>233000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>720000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>297000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>416000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>319000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-260000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-178000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-462000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-566000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-836000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>201000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>92000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>106000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>98000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,96 +1487,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-407000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1220000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1060000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2079000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2285000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3408000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>475000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>91000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>197000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>718000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>191000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>318000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>330000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-417000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1240000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1069000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2101000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2308000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3418000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>407000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>48000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>120000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>515000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>106000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>205000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>223000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1628,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1675,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1722,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,96 +1769,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>110000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>89000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>106000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>94000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-476000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>171000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-69000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-99000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-67000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-109000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>25000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-417000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1240000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1069000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2101000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2308000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3418000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>407000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>48000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>120000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>515000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>106000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>205000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>223000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,101 +1910,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-417000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1240000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1069000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2101000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2308000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3418000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>407000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>48000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>120000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>515000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>106000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>205000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>223000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2030,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,52 +2049,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2383000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3027000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2594000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3731000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2422000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2575000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4162000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3905000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3116000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2834000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2008000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2091000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1893000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1683000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,52 +2141,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6312000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6770000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6833000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6380000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6669000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7049000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2426000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2446000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2462000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2657000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2476000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2537000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2444000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2473000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,96 +2235,105 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4136000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3976000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4300000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3888000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3581000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5825000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>585000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>913000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1078000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1237000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1381000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1502000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1141000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>561000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12831000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13773000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13727000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13999000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12672000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15449000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7173000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7264000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6656000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6728000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5865000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6130000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5478000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4717000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2251,117 +2355,126 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>543000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>545000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>559000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>522000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>507000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>536000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5810000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5473000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5325000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8490000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8365000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8515000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1328000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1336000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1310000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1239000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1189000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1206000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1125000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1088000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>97055000</v>
+      </c>
+      <c r="E49" s="3">
         <v>100888000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>103370000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>106072000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>109482000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>113117000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>22611000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23061000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23429000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23694000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23765000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24149000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>24194000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>24618000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2517,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,52 +2564,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8053000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8484000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8162000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5440000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5530000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5159000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2687000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2223000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2378000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2352000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2284000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2095000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2105000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2136000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,52 +2658,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123749000</v>
+      </c>
+      <c r="E54" s="3">
         <v>128618000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>130584000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>134001000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>136049000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>142240000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33799000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34427000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34318000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34572000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33625000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34087000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33438000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33089000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2726,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,272 +2745,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1329000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1689000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1123000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1454000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1534000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1397000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>521000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>412000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2361000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2174000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2128000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>397000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>403000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>367000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1302000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3001000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3496000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>447000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1338000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1175000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>794000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>397000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>349000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>585000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>351000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>392000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>336000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11957000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12216000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11761000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13116000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11804000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11864000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2247000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2650000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>625000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>806000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>663000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2293000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2017000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1870000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14588000</v>
+      </c>
+      <c r="E60" s="3">
         <v>16906000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16380000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15017000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14676000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14436000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3562000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3459000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3335000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3565000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3142000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3082000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2756000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43498000</v>
+      </c>
+      <c r="E61" s="3">
         <v>44276000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45434000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>48820000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>48799000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>51594000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13605000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14617000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14436000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14462000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14675000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15253000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14981000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14944000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19521000</v>
+      </c>
+      <c r="E62" s="3">
         <v>20651000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20928000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21497000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22494000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23263000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3070000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2955000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3149000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3237000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3233000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3369000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3661000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3769000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3072,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3119,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,52 +3166,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78975000</v>
+      </c>
+      <c r="E66" s="3">
         <v>83166000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>84088000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>86906000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>87532000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>90857000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21830000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22828000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22707000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23034000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22810000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23623000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23351000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23222000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3234,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3279,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3326,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3373,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,52 +3420,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-526000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-105000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1133000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2205000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4306000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6614000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10033000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9580000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9522000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9360000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8682000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8543000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8278000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7980000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3514,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3561,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,52 +3608,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44774000</v>
+      </c>
+      <c r="E76" s="3">
         <v>45452000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46496000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47095000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48517000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>51383000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11969000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11599000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11611000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11538000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10815000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10464000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10087000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9867000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,101 +3702,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-417000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1240000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1069000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2101000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2308000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3418000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>407000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>48000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>120000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>515000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>106000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>205000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>223000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,52 +3822,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4984000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6524000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6685000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6253000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6174000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7382000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1494000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1305000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1560000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1114000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1104000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1196000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1104000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>985000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3914,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3961,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4008,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4055,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,52 +4102,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2516000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2014000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-631000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2846000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>124000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1011000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>323000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>884000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>811000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>834000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>269000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>553000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>860000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>991000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,52 +4170,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-457000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-292000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-299000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-364000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-316000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-222000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-85000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-106000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-90000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-112000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-73000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-112000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4262,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,52 +4309,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-458000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-310000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-257000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-218000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>862000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2351000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>529000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-226000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>40000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>156000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-153000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-396000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-84000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4377,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4422,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4469,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4516,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,136 +4563,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2625000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1251000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-432000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1272000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2313000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3570000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-587000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-42000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-273000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-69000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-469000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-277000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-274000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-739000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-15000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>29000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>61000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-56000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-61000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-37000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>21000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-70000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>43000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>28000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-647000</v>
+      </c>
+      <c r="E102" s="3">
         <v>438000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1291000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1417000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1383000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-269000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>260000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>779000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>292000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>826000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-114000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>166000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>218000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>204000</v>
       </c>
     </row>
